--- a/Results/Two_Mutation_File.xlsx
+++ b/Results/Two_Mutation_File.xlsx
@@ -17,9 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
-    <t xml:space="preserve">BCAT_comple_Inhibitor</t>
+    <t xml:space="preserve">Beta_Catenin_complex_Inhibitor</t>
   </si>
   <si>
     <t xml:space="preserve">GLI_Inhibitor</t>
@@ -64,124 +64,280 @@
     <t xml:space="preserve">Norm_Mean_Size_Difference</t>
   </si>
   <si>
+    <t xml:space="preserve">0.653921153030945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.711657481983891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.749300551080966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.801610852055956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.813459092835947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.898431538787622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93658329800763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.953454853751589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.962696057651547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.996100042390843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Untreated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
     <t xml:space="preserve">AKT_Inhibitor + STAT3_Inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.463671047053836</t>
   </si>
   <si>
     <t xml:space="preserve">NFKB_Inhibitor + CREB_Inhibitor</t>
   </si>
   <si>
+    <t xml:space="preserve">0.483933870284019</t>
+  </si>
+  <si>
     <t xml:space="preserve">AKT_Inhibitor + NFKB_Inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.489868588384909</t>
   </si>
   <si>
     <t xml:space="preserve">GLI_Inhibitor + NFKB_Inhibitor</t>
   </si>
   <si>
+    <t xml:space="preserve">0.498770665536244</t>
+  </si>
+  <si>
     <t xml:space="preserve">CREB_Inhibitor + STAT3_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">BCAT_comple_Inhibitor + NFKB_Inhibitor</t>
+    <t xml:space="preserve">0.516150911403137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + NFKB_Inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.536922424756253</t>
   </si>
   <si>
     <t xml:space="preserve">NFKB_Inhibitor + STAT3_Inhibitor</t>
   </si>
   <si>
+    <t xml:space="preserve">0.53946587537092</t>
+  </si>
+  <si>
     <t xml:space="preserve">NFKB_Inhibitor + PI3K_Inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.543090292496821</t>
   </si>
   <si>
     <t xml:space="preserve">STAT3_Inhibitor + PI3K_Inhibitor</t>
   </si>
   <si>
+    <t xml:space="preserve">0.581369224247562</t>
+  </si>
+  <si>
     <t xml:space="preserve">GLI_Inhibitor + AKT_Inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.589063162356931</t>
   </si>
   <si>
     <t xml:space="preserve">GLI_Inhibitor + AKT_Inhibitor + STAT3_Inhibitor</t>
   </si>
   <si>
+    <t xml:space="preserve">0.319881305637982</t>
+  </si>
+  <si>
     <t xml:space="preserve">GLI_Inhibitor + NFKB_Inhibitor + CREB_Inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.33505722763883</t>
   </si>
   <si>
     <t xml:space="preserve">GLI_Inhibitor + AKT_Inhibitor + NFKB_Inhibitor</t>
   </si>
   <si>
+    <t xml:space="preserve">0.338109368376431</t>
+  </si>
+  <si>
     <t xml:space="preserve">NFKB_Inhibitor + CREB_Inhibitor + STAT3_Inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.351674438321323</t>
   </si>
   <si>
     <t xml:space="preserve">AKT_Inhibitor + NFKB_Inhibitor + STAT3_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">BCAT_comple_Inhibitor + GLI_Inhibitor + NFKB_Inhibitor</t>
+    <t xml:space="preserve">0.356337431114879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + GLI_Inhibitor + NFKB_Inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.370919881305638</t>
   </si>
   <si>
     <t xml:space="preserve">GLI_Inhibitor + NFKB_Inhibitor + STAT3_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">BCAT_comple_Inhibitor + AKT_Inhibitor + STAT3_Inhibitor</t>
+    <t xml:space="preserve">0.38007630351844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + AKT_Inhibitor + STAT3_Inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.380924120389996</t>
   </si>
   <si>
     <t xml:space="preserve">GLI_Inhibitor + CREB_Inhibitor + STAT3_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">BCAT_comple_Inhibitor + NFKB_Inhibitor + CREB_Inhibitor</t>
+    <t xml:space="preserve">0.386095803306486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + NFKB_Inhibitor + CREB_Inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.389995760915642</t>
   </si>
   <si>
     <t xml:space="preserve">GLI_Inhibitor + NFKB_Inhibitor + CREB_Inhibitor + STAT3_Inhibitor</t>
   </si>
   <si>
+    <t xml:space="preserve">0.198558711318355</t>
+  </si>
+  <si>
     <t xml:space="preserve">GLI_Inhibitor + AKT_Inhibitor + NFKB_Inhibitor + STAT3_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">BCAT_comple_Inhibitor + GLI_Inhibitor + AKT_Inhibitor + STAT3_Inhibitor</t>
+    <t xml:space="preserve">0.200339126748622</t>
   </si>
   <si>
-    <t xml:space="preserve">BCAT_comple_Inhibitor + GLI_Inhibitor + AKT_Inhibitor + NFKB_Inhibitor</t>
+    <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + GLI_Inhibitor + AKT_Inhibitor + STAT3_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">BCAT_comple_Inhibitor + GLI_Inhibitor + NFKB_Inhibitor + CREB_Inhibitor</t>
+    <t xml:space="preserve">0.226282323018228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + GLI_Inhibitor + AKT_Inhibitor + NFKB_Inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.228910555320051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + GLI_Inhibitor + NFKB_Inhibitor + CREB_Inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23026706231454</t>
   </si>
   <si>
     <t xml:space="preserve">GLI_Inhibitor + Notch_complex_Inhibitor + AKT_Inhibitor + STAT3_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">BCAT_comple_Inhibitor + GLI_Inhibitor + NFKB_Inhibitor + STAT3_Inhibitor</t>
+    <t xml:space="preserve">0.250699448919033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + GLI_Inhibitor + NFKB_Inhibitor + STAT3_Inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.255616786774057</t>
   </si>
   <si>
     <t xml:space="preserve">GLI_Inhibitor + NFKB_Inhibitor + STAT3_Inhibitor + PI3K_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">BCAT_comple_Inhibitor + NFKB_Inhibitor + CREB_Inhibitor + STAT3_Inhibitor</t>
+    <t xml:space="preserve">0.258266214497669</t>
   </si>
   <si>
-    <t xml:space="preserve">BCAT_comple_Inhibitor + AKT_Inhibitor + NFKB_Inhibitor + STAT3_Inhibitor</t>
+    <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + NFKB_Inhibitor + CREB_Inhibitor + STAT3_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">BCAT_comple_Inhibitor + GLI_Inhibitor + AKT_Inhibitor + NFKB_Inhibitor + STAT3_Inhibitor</t>
+    <t xml:space="preserve">0.261127596439169</t>
   </si>
   <si>
-    <t xml:space="preserve">BCAT_comple_Inhibitor + GLI_Inhibitor + NFKB_Inhibitor + CREB_Inhibitor + STAT3_Inhibitor</t>
+    <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + AKT_Inhibitor + NFKB_Inhibitor + STAT3_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">BCAT_comple_Inhibitor + GLI_Inhibitor + NFKB_Inhibitor + STAT3_Inhibitor + PI3K_Inhibitor</t>
+    <t xml:space="preserve">0.261381941500636</t>
   </si>
   <si>
-    <t xml:space="preserve">BCAT_comple_Inhibitor + GLI_Inhibitor + Notch_complex_Inhibitor + AKT_Inhibitor + STAT3_Inhibitor</t>
+    <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + GLI_Inhibitor + AKT_Inhibitor + NFKB_Inhibitor + STAT3_Inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0945315811784654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + GLI_Inhibitor + NFKB_Inhibitor + CREB_Inhibitor + STAT3_Inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0971598134802883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + GLI_Inhibitor + NFKB_Inhibitor + STAT3_Inhibitor + PI3K_Inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146863077575244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + GLI_Inhibitor + Notch_complex_Inhibitor + AKT_Inhibitor + STAT3_Inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148961424332344</t>
   </si>
   <si>
     <t xml:space="preserve">GLI_Inhibitor + AKT_Inhibitor + NFKB_Inhibitor + STAT3_Inhibitor + Hippo_complex_Inhibitor</t>
   </si>
   <si>
+    <t xml:space="preserve">0.175582874099195</t>
+  </si>
+  <si>
     <t xml:space="preserve">GLI_Inhibitor + NFKB_Inhibitor + CREB_Inhibitor + STAT3_Inhibitor + Hippo_complex_Inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176854599406528</t>
   </si>
   <si>
     <t xml:space="preserve">GLI_Inhibitor + Notch_complex_Inhibitor + AKT_Inhibitor + NFKB_Inhibitor + STAT3_Inhibitor</t>
   </si>
   <si>
+    <t xml:space="preserve">0.182026282323018</t>
+  </si>
+  <si>
     <t xml:space="preserve">GLI_Inhibitor + Notch_complex_Inhibitor + NFKB_Inhibitor + CREB_Inhibitor + STAT3_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">BCAT_comple_Inhibitor + GLI_Inhibitor + AKT_Inhibitor + STAT3_Inhibitor + Hippo_complex_Inhibitor</t>
+    <t xml:space="preserve">0.182534972445952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + GLI_Inhibitor + AKT_Inhibitor + STAT3_Inhibitor + Hippo_complex_Inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186604493429419</t>
   </si>
   <si>
     <t xml:space="preserve">GLI_Inhibitor + AKT_Inhibitor + NFKB_Inhibitor + CREB_Inhibitor + STAT3_Inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186689275116575</t>
   </si>
 </sst>
 </file>
@@ -42564,80 +42720,88 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.653921153030945</v>
+      <c r="B2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="n">
-        <v>0.711657481983891</v>
+      <c r="B3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="n">
-        <v>0.749300551080966</v>
+      <c r="B4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.801610852055956</v>
+      <c r="B5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="n">
-        <v>0.813459092835947</v>
+      <c r="B6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" t="n">
-        <v>0.898431538787622</v>
+      <c r="B7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>0</v>
       </c>
-      <c r="B8" t="n">
-        <v>0.93658329800763</v>
+      <c r="B8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="B9" t="n">
-        <v>0.953454853751589</v>
+      <c r="B9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="n">
-        <v>0.962696057651547</v>
+      <c r="B10" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" t="n">
-        <v>0.996100042390843</v>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -42664,82 +42828,90 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.463671047053836</v>
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.483933870284019</v>
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.489868588384909</v>
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.498770665536244</v>
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.516150911403137</v>
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.536922424756253</v>
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.53946587537092</v>
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.543090292496821</v>
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.581369224247562</v>
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.589063162356931</v>
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -42766,82 +42938,90 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.319881305637982</v>
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.33505722763883</v>
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.338109368376431</v>
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.351674438321323</v>
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.356337431114879</v>
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.370919881305638</v>
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.38007630351844</v>
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.380924120389996</v>
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.386095803306486</v>
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.389995760915642</v>
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -42868,82 +43048,90 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.198558711318355</v>
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.200339126748622</v>
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.226282323018228</v>
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.228910555320051</v>
+        <v>73</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.23026706231454</v>
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.250699448919033</v>
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.255616786774057</v>
+        <v>79</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.258266214497669</v>
+        <v>81</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.261127596439169</v>
+        <v>83</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.261381941500636</v>
+        <v>85</v>
+      </c>
+      <c r="B11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -42970,82 +43158,90 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.0945315811784654</v>
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.0971598134802883</v>
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.146863077575244</v>
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.148961424332344</v>
+        <v>93</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.175582874099195</v>
+        <v>95</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.176854599406528</v>
+        <v>97</v>
+      </c>
+      <c r="B7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.182026282323018</v>
+        <v>99</v>
+      </c>
+      <c r="B8" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.182534972445952</v>
+        <v>101</v>
+      </c>
+      <c r="B9" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.186604493429419</v>
+        <v>103</v>
+      </c>
+      <c r="B10" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.186689275116575</v>
+        <v>105</v>
+      </c>
+      <c r="B11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Two_Mutation_File.xlsx
+++ b/Results/Two_Mutation_File.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t xml:space="preserve">Beta_Catenin_complex_Inhibitor</t>
   </si>
@@ -64,286 +64,130 @@
     <t xml:space="preserve">Norm_Mean_Size_Difference</t>
   </si>
   <si>
-    <t xml:space="preserve">0.653921153030945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.711657481983891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.749300551080966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.801610852055956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.813459092835947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.898431538787622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93658329800763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.953454853751589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962696057651547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.996100042390843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Untreated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
     <t xml:space="preserve">AKT_Inhibitor + STAT3_Inhibitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.463671047053836</t>
   </si>
   <si>
     <t xml:space="preserve">NFKB_Inhibitor + CREB_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">0.483933870284019</t>
-  </si>
-  <si>
     <t xml:space="preserve">AKT_Inhibitor + NFKB_Inhibitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.489868588384909</t>
   </si>
   <si>
     <t xml:space="preserve">GLI_Inhibitor + NFKB_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">0.498770665536244</t>
-  </si>
-  <si>
     <t xml:space="preserve">CREB_Inhibitor + STAT3_Inhibitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.516150911403137</t>
   </si>
   <si>
     <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + NFKB_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">0.536922424756253</t>
-  </si>
-  <si>
     <t xml:space="preserve">NFKB_Inhibitor + STAT3_Inhibitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.53946587537092</t>
   </si>
   <si>
     <t xml:space="preserve">NFKB_Inhibitor + PI3K_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">0.543090292496821</t>
-  </si>
-  <si>
     <t xml:space="preserve">STAT3_Inhibitor + PI3K_Inhibitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.581369224247562</t>
   </si>
   <si>
     <t xml:space="preserve">GLI_Inhibitor + AKT_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">0.589063162356931</t>
-  </si>
-  <si>
     <t xml:space="preserve">GLI_Inhibitor + AKT_Inhibitor + STAT3_Inhibitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.319881305637982</t>
   </si>
   <si>
     <t xml:space="preserve">GLI_Inhibitor + NFKB_Inhibitor + CREB_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">0.33505722763883</t>
-  </si>
-  <si>
     <t xml:space="preserve">GLI_Inhibitor + AKT_Inhibitor + NFKB_Inhibitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.338109368376431</t>
   </si>
   <si>
     <t xml:space="preserve">NFKB_Inhibitor + CREB_Inhibitor + STAT3_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">0.351674438321323</t>
-  </si>
-  <si>
     <t xml:space="preserve">AKT_Inhibitor + NFKB_Inhibitor + STAT3_Inhibitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356337431114879</t>
   </si>
   <si>
     <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + GLI_Inhibitor + NFKB_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370919881305638</t>
-  </si>
-  <si>
     <t xml:space="preserve">GLI_Inhibitor + NFKB_Inhibitor + STAT3_Inhibitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.38007630351844</t>
   </si>
   <si>
     <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + AKT_Inhibitor + STAT3_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">0.380924120389996</t>
-  </si>
-  <si>
     <t xml:space="preserve">GLI_Inhibitor + CREB_Inhibitor + STAT3_Inhibitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.386095803306486</t>
   </si>
   <si>
     <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + NFKB_Inhibitor + CREB_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">0.389995760915642</t>
-  </si>
-  <si>
     <t xml:space="preserve">GLI_Inhibitor + NFKB_Inhibitor + CREB_Inhibitor + STAT3_Inhibitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.198558711318355</t>
   </si>
   <si>
     <t xml:space="preserve">GLI_Inhibitor + AKT_Inhibitor + NFKB_Inhibitor + STAT3_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">0.200339126748622</t>
-  </si>
-  <si>
     <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + GLI_Inhibitor + AKT_Inhibitor + STAT3_Inhibitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.226282323018228</t>
   </si>
   <si>
     <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + GLI_Inhibitor + AKT_Inhibitor + NFKB_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">0.228910555320051</t>
-  </si>
-  <si>
     <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + GLI_Inhibitor + NFKB_Inhibitor + CREB_Inhibitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23026706231454</t>
   </si>
   <si>
     <t xml:space="preserve">GLI_Inhibitor + Notch_complex_Inhibitor + AKT_Inhibitor + STAT3_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">0.250699448919033</t>
-  </si>
-  <si>
     <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + GLI_Inhibitor + NFKB_Inhibitor + STAT3_Inhibitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.255616786774057</t>
   </si>
   <si>
     <t xml:space="preserve">GLI_Inhibitor + NFKB_Inhibitor + STAT3_Inhibitor + PI3K_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">0.258266214497669</t>
-  </si>
-  <si>
     <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + NFKB_Inhibitor + CREB_Inhibitor + STAT3_Inhibitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.261127596439169</t>
   </si>
   <si>
     <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + AKT_Inhibitor + NFKB_Inhibitor + STAT3_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">0.261381941500636</t>
-  </si>
-  <si>
     <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + GLI_Inhibitor + AKT_Inhibitor + NFKB_Inhibitor + STAT3_Inhibitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0945315811784654</t>
   </si>
   <si>
     <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + GLI_Inhibitor + NFKB_Inhibitor + CREB_Inhibitor + STAT3_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0971598134802883</t>
-  </si>
-  <si>
     <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + GLI_Inhibitor + NFKB_Inhibitor + STAT3_Inhibitor + PI3K_Inhibitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146863077575244</t>
   </si>
   <si>
     <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + GLI_Inhibitor + Notch_complex_Inhibitor + AKT_Inhibitor + STAT3_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148961424332344</t>
-  </si>
-  <si>
     <t xml:space="preserve">GLI_Inhibitor + AKT_Inhibitor + NFKB_Inhibitor + STAT3_Inhibitor + Hippo_complex_Inhibitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175582874099195</t>
   </si>
   <si>
     <t xml:space="preserve">GLI_Inhibitor + NFKB_Inhibitor + CREB_Inhibitor + STAT3_Inhibitor + Hippo_complex_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176854599406528</t>
-  </si>
-  <si>
     <t xml:space="preserve">GLI_Inhibitor + Notch_complex_Inhibitor + AKT_Inhibitor + NFKB_Inhibitor + STAT3_Inhibitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.182026282323018</t>
   </si>
   <si>
     <t xml:space="preserve">GLI_Inhibitor + Notch_complex_Inhibitor + NFKB_Inhibitor + CREB_Inhibitor + STAT3_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182534972445952</t>
-  </si>
-  <si>
     <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + GLI_Inhibitor + AKT_Inhibitor + STAT3_Inhibitor + Hippo_complex_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186604493429419</t>
-  </si>
-  <si>
     <t xml:space="preserve">GLI_Inhibitor + AKT_Inhibitor + NFKB_Inhibitor + CREB_Inhibitor + STAT3_Inhibitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186689275116575</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -662,10 +506,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -42701,10 +42545,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -42720,88 +42564,80 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
+      <c r="B2" t="n">
+        <v>0.653921153030945</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
+      <c r="B3" t="n">
+        <v>0.711657481983891</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>17</v>
+      <c r="B4" t="n">
+        <v>0.749300551080966</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
+      <c r="B5" t="n">
+        <v>0.801610852055956</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>19</v>
+      <c r="B6" t="n">
+        <v>0.813459092835947</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
-        <v>20</v>
+      <c r="B7" t="n">
+        <v>0.898431538787622</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>0</v>
       </c>
-      <c r="B8" t="s">
-        <v>21</v>
+      <c r="B8" t="n">
+        <v>0.93658329800763</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="B9" t="s">
-        <v>22</v>
+      <c r="B9" t="n">
+        <v>0.953454853751589</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
+      <c r="B10" t="n">
+        <v>0.962696057651547</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
+      <c r="B11" t="n">
+        <v>0.996100042390843</v>
       </c>
     </row>
   </sheetData>
@@ -42811,10 +42647,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -42828,90 +42664,82 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
+        <v>15</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.463671047053836</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
+        <v>16</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.483933870284019</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
+        <v>17</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.489868588384909</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.498770665536244</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
+        <v>19</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.516150911403137</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
+        <v>20</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.536922424756253</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
+        <v>21</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.53946587537092</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
+        <v>22</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.543090292496821</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" t="s">
-        <v>44</v>
+        <v>23</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.581369224247562</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.589063162356931</v>
       </c>
     </row>
   </sheetData>
@@ -42921,10 +42749,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -42938,90 +42766,82 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" t="s">
-        <v>48</v>
+        <v>25</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.319881305637982</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
+        <v>26</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.33505722763883</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
+        <v>27</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.338109368376431</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" t="s">
-        <v>54</v>
+        <v>28</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.351674438321323</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" t="s">
-        <v>56</v>
+        <v>29</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.356337431114879</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" t="s">
-        <v>58</v>
+        <v>30</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.370919881305638</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" t="s">
-        <v>60</v>
+        <v>31</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.38007630351844</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" t="s">
-        <v>62</v>
+        <v>32</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.380924120389996</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" t="s">
-        <v>64</v>
+        <v>33</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.386095803306486</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
+        <v>34</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.389995760915642</v>
       </c>
     </row>
   </sheetData>
@@ -43031,10 +42851,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -43048,90 +42868,82 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" t="s">
-        <v>68</v>
+        <v>35</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.198558711318355</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" t="s">
-        <v>70</v>
+        <v>36</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.200339126748622</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" t="s">
-        <v>72</v>
+        <v>37</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.226282323018228</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" t="s">
-        <v>74</v>
+        <v>38</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.228910555320051</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" t="s">
-        <v>76</v>
+        <v>39</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.23026706231454</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" t="s">
-        <v>78</v>
+        <v>40</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.250699448919033</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" t="s">
-        <v>80</v>
+        <v>41</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.255616786774057</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" t="s">
-        <v>82</v>
+        <v>42</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.258266214497669</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" t="s">
-        <v>84</v>
+        <v>43</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.261127596439169</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
+        <v>44</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.261381941500636</v>
       </c>
     </row>
   </sheetData>
@@ -43141,10 +42953,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -43158,90 +42970,82 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" t="s">
-        <v>88</v>
+        <v>45</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0945315811784654</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" t="s">
-        <v>90</v>
+        <v>46</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0971598134802883</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" t="s">
-        <v>92</v>
+        <v>47</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.146863077575244</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" t="s">
-        <v>94</v>
+        <v>48</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.148961424332344</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" t="s">
-        <v>96</v>
+        <v>49</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.175582874099195</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" t="s">
-        <v>98</v>
+        <v>50</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.176854599406528</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" t="s">
-        <v>100</v>
+        <v>51</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.182026282323018</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" t="s">
-        <v>102</v>
+        <v>52</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.182534972445952</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" t="s">
-        <v>104</v>
+        <v>53</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.186604493429419</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
+        <v>54</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.186689275116575</v>
       </c>
     </row>
   </sheetData>
